--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>11.79517503953477</v>
+        <v>9.824617691558897</v>
       </c>
       <c r="G2" t="n">
-        <v>11.56195291449782</v>
+        <v>9.621279507202052</v>
       </c>
       <c r="H2" t="n">
-        <v>12.03257745149925</v>
+        <v>10.03041475721893</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002337826258214273</v>
+        <v>0.002527942562296337</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00206527983991981</v>
+        <v>0.002253059092366989</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002662535315483961</v>
+        <v>0.002865412155953543</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009825867941998582</v>
+        <v>0.008890111058752601</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009528671769633193</v>
+        <v>0.008696115606330237</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01017653010564201</v>
+        <v>0.009092402267896798</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04719219426797927</v>
+        <v>0.0466430919665593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04668121561888553</v>
+        <v>0.04636586929448727</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04810915290538394</v>
+        <v>0.04694978669319402</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04523260230954082</v>
+        <v>0.0450833632713068</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04506681472880601</v>
+        <v>0.04481643278537908</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04546271158587652</v>
+        <v>0.04537777210227339</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0467496112877022</v>
+        <v>0.04669361636918469</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04663471149169364</v>
+        <v>0.04641639815915267</v>
       </c>
       <c r="N3" t="n">
-        <v>0.046874565607505</v>
+        <v>0.04700027433807879</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.871260783525457</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.667645376496539</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10.07736454391212</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04761130583360314</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04706949187774607</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04824318425822693</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.0555837274279373</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0551125137654829</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05609267660597559</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>9.824651690452342</v>
+        <v>9.82461274400216</v>
       </c>
       <c r="G2" t="n">
-        <v>9.62492178399936</v>
+        <v>9.6226578296356</v>
       </c>
       <c r="H2" t="n">
-        <v>10.0265113792361</v>
+        <v>10.03087779307675</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002527242653168935</v>
+        <v>0.002528852152208033</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002245492202227781</v>
+        <v>0.002253088948055081</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002854528859736951</v>
+        <v>0.002861120764638966</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008890363398223938</v>
+        <v>0.008890180060885326</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00869479618168984</v>
+        <v>0.008697326742682056</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009089729607002456</v>
+        <v>0.009091865758660951</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04664501539242744</v>
+        <v>0.04664534464428318</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04635438174126001</v>
+        <v>0.04634631039237534</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04693971001269212</v>
+        <v>0.0469325087099207</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04508521895389653</v>
+        <v>0.04508553840610342</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04480532918421806</v>
+        <v>0.04479752780671629</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04536802261305288</v>
+        <v>0.04536103108637986</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04669551756735525</v>
+        <v>0.04669584838478093</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04640491492797095</v>
+        <v>0.04639689118820508</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04699022364357902</v>
+        <v>0.04698308668758529</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.06981341165143562</v>
       </c>
       <c r="F4" t="n">
-        <v>9.87129670584477</v>
+        <v>9.871258088646442</v>
       </c>
       <c r="G4" t="n">
-        <v>9.67127616574062</v>
+        <v>9.669004140027974</v>
       </c>
       <c r="H4" t="n">
-        <v>10.0734510892488</v>
+        <v>10.07781030178667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04761246160706547</v>
+        <v>0.04761439055831146</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04705082138644583</v>
+        <v>0.04705061675477137</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04822255147278982</v>
+        <v>0.04822215185101883</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05558588096557919</v>
+        <v>0.05558602844566626</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05509971110966079</v>
+        <v>0.05509421793088713</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05607995325058147</v>
+        <v>0.05607495244624622</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>9.82461274400216</v>
+        <v>9.824647717578905</v>
       </c>
       <c r="G2" t="n">
-        <v>9.6226578296356</v>
+        <v>9.621358413695905</v>
       </c>
       <c r="H2" t="n">
-        <v>10.03087779307675</v>
+        <v>10.02801546946508</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002528852152208033</v>
+        <v>0.002528524480027724</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002253088948055081</v>
+        <v>0.002254026368617062</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002861120764638966</v>
+        <v>0.00286336412815012</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008890180060885326</v>
+        <v>0.00889024431495853</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008697326742682056</v>
+        <v>0.008696422842117978</v>
       </c>
       <c r="N2" t="n">
-        <v>0.009091865758660951</v>
+        <v>0.009091827824325235</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04664534464428318</v>
+        <v>0.04664409144174743</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04634631039237534</v>
+        <v>0.04635600292339141</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0469325087099207</v>
+        <v>0.0469438589313893</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04508553840610342</v>
+        <v>0.0450843268813746</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04479752780671629</v>
+        <v>0.04480689623509305</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04536103108637986</v>
+        <v>0.04537202696875812</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04669584838478093</v>
+        <v>0.04669460331861312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04639689118820508</v>
+        <v>0.04640654441658189</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04698308668758529</v>
+        <v>0.04699438929953247</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.06981341165143562</v>
       </c>
       <c r="F4" t="n">
-        <v>9.871258088646442</v>
+        <v>9.871291809020653</v>
       </c>
       <c r="G4" t="n">
-        <v>9.669004140027974</v>
+        <v>9.667714416619296</v>
       </c>
       <c r="H4" t="n">
-        <v>10.07781030178667</v>
+        <v>10.07495932839647</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04761439055831146</v>
+        <v>0.04761285136140232</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04705061675477137</v>
+        <v>0.04706092260371012</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04822215185101883</v>
+        <v>0.04823539109690824</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05558602844566626</v>
+        <v>0.05558484763357165</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05509421793088713</v>
+        <v>0.05510296725869987</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05607495244624622</v>
+        <v>0.05608621712385772</v>
       </c>
     </row>
   </sheetData>
